--- a/lichtblyck/tlp/sourcedata/power/BAYERNWERK_NSP.xlsx
+++ b/lichtblyck/tlp/sourcedata/power/BAYERNWERK_NSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lichtblickit-my.sharepoint.com/personal/ruud_wijtvliet_lichtblick_de/Documents/Work_in_RM/python/2020_01_lichtblyck/lichtblyck/tlp/sourcedata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lichtblickit-my.sharepoint.com/personal/ruud_wijtvliet_lichtblick_de/Documents/Work_in_RM/python/2020_01_lichtblyck/lichtblyck/tlp/sourcedata/power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{6D585F39-CE90-406D-80E4-75C7C650DB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6AEE605-81F4-4194-AC79-587EF2EEA911}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{6D585F39-CE90-406D-80E4-75C7C650DB3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E1E45A4D-7934-4A9F-B6E6-F05DC2597C9A}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="-120" windowWidth="26640" windowHeight="18240" xr2:uid="{BD80396A-E206-441B-9ED8-C390EB58CE38}"/>
+    <workbookView xWindow="5655" yWindow="3945" windowWidth="20115" windowHeight="13185" xr2:uid="{BD80396A-E206-441B-9ED8-C390EB58CE38}"/>
   </bookViews>
   <sheets>
     <sheet name="HZ0" sheetId="1" r:id="rId1"/>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C64206-650B-4A72-ABD0-B044C7D3E08B}">
   <dimension ref="A1:AK97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z31" workbookViewId="0">
-      <selection activeCell="AK54" sqref="M54:AK55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11373,12 +11373,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11546,15 +11543,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E7FDB61-8797-4A48-9D85-7D7AB0EF0720}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9FC3FC-2871-4E09-AE6E-3E30BFF35438}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11578,10 +11579,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9FC3FC-2871-4E09-AE6E-3E30BFF35438}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E7FDB61-8797-4A48-9D85-7D7AB0EF0720}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>